--- a/evaluation/results/isolation_forest/augmented/magnitude_1/split_5/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/augmented/magnitude_1/split_5/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.8772241992882562</v>
+        <v>0.2526690391459075</v>
       </c>
       <c r="C2">
-        <v>0.1940298507462687</v>
+        <v>0.0625</v>
       </c>
       <c r="D2">
-        <v>0.4642857142857143</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.2736842105263158</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="F2">
-        <v>0.3631284916201117</v>
+        <v>0.25</v>
       </c>
       <c r="G2">
-        <v>0.4406779661016949</v>
+        <v>0.6341463414634146</v>
       </c>
       <c r="H2">
-        <v>0.6815810593900481</v>
+        <v>0.77919341894061</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J2">
-        <v>54</v>
+        <v>420</v>
       </c>
       <c r="K2">
-        <v>480</v>
+        <v>114</v>
       </c>
       <c r="L2">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.898876404494382</v>
+        <v>0.2134831460674157</v>
       </c>
       <c r="D2">
-        <v>0.9329446064139941</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.1940298507462687</v>
+        <v>0.0625</v>
       </c>
       <c r="C3">
-        <v>0.4642857142857143</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.2736842105263158</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.8772241992882562</v>
+        <v>0.2526690391459075</v>
       </c>
       <c r="C4">
-        <v>0.8772241992882562</v>
+        <v>0.2526690391459075</v>
       </c>
       <c r="D4">
-        <v>0.8772241992882562</v>
+        <v>0.2526690391459075</v>
       </c>
       <c r="E4">
-        <v>0.8772241992882562</v>
+        <v>0.2526690391459075</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.5818634102216191</v>
+        <v>0.53125</v>
       </c>
       <c r="C5">
-        <v>0.6815810593900482</v>
+        <v>0.6067415730337079</v>
       </c>
       <c r="D5">
-        <v>0.6033144084701549</v>
+        <v>0.2347494553376906</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9310516328097463</v>
+        <v>0.9532918149466192</v>
       </c>
       <c r="C6">
-        <v>0.8772241992882562</v>
+        <v>0.2526690391459075</v>
       </c>
       <c r="D6">
-        <v>0.900098892739875</v>
+        <v>0.3401832856511525</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>480</v>
+        <v>114</v>
       </c>
       <c r="C2">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
